--- a/product_database.xlsx
+++ b/product_database.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/808e51f7a56410b4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{7BD2C32E-1666-469A-AE3F-F2CE19F63FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8AFA84-E07E-4B21-BA0F-612E63F7F1D4}"/>
+  <xr:revisionPtr revIDLastSave="631" documentId="8_{7BD2C32E-1666-469A-AE3F-F2CE19F63FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25686AE7-FBCD-4F25-B228-8D5A3D2140C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CD29EAED-E7B4-4F3B-9705-2381CE976E84}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{CD29EAED-E7B4-4F3B-9705-2381CE976E84}"/>
   </bookViews>
   <sheets>
-    <sheet name="PROFILE_1" sheetId="1" r:id="rId1"/>
-    <sheet name="PROFILE_2" sheetId="2" r:id="rId2"/>
-    <sheet name="PROFILE_3" sheetId="3" r:id="rId3"/>
+    <sheet name="PROFILE" sheetId="1" r:id="rId1"/>
+    <sheet name="ACCESSORY" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="167">
   <si>
     <t>Price(RM)</t>
   </si>
@@ -190,42 +189,9 @@
     <t>57.68 /M</t>
   </si>
   <si>
-    <t>001.0019.001.15</t>
-  </si>
-  <si>
     <t>H8 - 5.8M</t>
   </si>
   <si>
-    <t>&lt;103M</t>
-  </si>
-  <si>
-    <t>&gt;103M</t>
-  </si>
-  <si>
-    <t>&gt;205M</t>
-  </si>
-  <si>
-    <t>&gt;410M</t>
-  </si>
-  <si>
-    <t>&gt;820M</t>
-  </si>
-  <si>
-    <t>29.44 /M</t>
-  </si>
-  <si>
-    <t>28.16 /M</t>
-  </si>
-  <si>
-    <t>26.88 /M</t>
-  </si>
-  <si>
-    <t>25.60 /M</t>
-  </si>
-  <si>
-    <t>24.32 /M</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -289,9 +255,6 @@
     <t>001.0019.102.05</t>
   </si>
   <si>
-    <t>P8 - 5.8M</t>
-  </si>
-  <si>
     <t>001.0019.112.05</t>
   </si>
   <si>
@@ -440,6 +403,141 @@
   </si>
   <si>
     <t>49.80/M</t>
+  </si>
+  <si>
+    <t>P8 40x40x90R4S L - 5.8M</t>
+  </si>
+  <si>
+    <t>P8 40x40x0R4S L - 5.8M</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>001.0098.002.00</t>
+  </si>
+  <si>
+    <t>DF5TM4 St</t>
+  </si>
+  <si>
+    <t>&lt;20</t>
+  </si>
+  <si>
+    <t>&gt;19</t>
+  </si>
+  <si>
+    <t>&gt;99</t>
+  </si>
+  <si>
+    <t>&gt;499</t>
+  </si>
+  <si>
+    <t>&gt;999</t>
+  </si>
+  <si>
+    <t>001.0098.003.00</t>
+  </si>
+  <si>
+    <t>DF5TM5 St</t>
+  </si>
+  <si>
+    <t>001.0103.001.00</t>
+  </si>
+  <si>
+    <t>DF8TM4 St</t>
+  </si>
+  <si>
+    <t>001.0103.002.00</t>
+  </si>
+  <si>
+    <t>DF8TM5 St</t>
+  </si>
+  <si>
+    <t>001.0103.003.00</t>
+  </si>
+  <si>
+    <t>DF8TM6 St</t>
+  </si>
+  <si>
+    <t>001.0103.004.00</t>
+  </si>
+  <si>
+    <t>DF8TM8 St</t>
+  </si>
+  <si>
+    <t>001.0103.004.01</t>
+  </si>
+  <si>
+    <t>001.0103.004.02</t>
+  </si>
+  <si>
+    <t>001.0103.004.03</t>
+  </si>
+  <si>
+    <t>Fastener</t>
+  </si>
+  <si>
+    <t>C-Connector</t>
+  </si>
+  <si>
+    <t>001.0059.001.00</t>
+  </si>
+  <si>
+    <t>CC5 20</t>
+  </si>
+  <si>
+    <t>&gt;49</t>
+  </si>
+  <si>
+    <t>&gt;199</t>
+  </si>
+  <si>
+    <t>CC6 30</t>
+  </si>
+  <si>
+    <t>001.0059.002.00</t>
+  </si>
+  <si>
+    <t>001.0059.003.00</t>
+  </si>
+  <si>
+    <t>CC8 40</t>
+  </si>
+  <si>
+    <t>Threaded Connector</t>
+  </si>
+  <si>
+    <t>001.0056.003.01</t>
+  </si>
+  <si>
+    <t>TC8HS</t>
+  </si>
+  <si>
+    <t>F Connector</t>
+  </si>
+  <si>
+    <t>001.0058.003.00</t>
+  </si>
+  <si>
+    <t>FC8 40</t>
+  </si>
+  <si>
+    <t>Cable Holder</t>
+  </si>
+  <si>
+    <t>001.0001.001.00</t>
+  </si>
+  <si>
+    <t>P8 Push-In</t>
+  </si>
+  <si>
+    <t>001.0001.007.00</t>
+  </si>
+  <si>
+    <t>P6/8V Push-In</t>
   </si>
 </sst>
 </file>
@@ -499,10 +597,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209F9D7-A00E-4D41-A4F4-0FC0F305DC93}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,16 +938,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1317,6 +1411,696 @@
       </c>
       <c r="G21" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1326,896 +2110,1144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832FC05-4A47-46E7-9103-98E35351DD32}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EF7D85-5277-493A-94C9-810C6624A49D}">
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20">
-        <v>40</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAC148B-D5A0-4365-A138-3B1FD102141A}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12">
-        <v>90</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16">
-        <v>90</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>